--- a/DicionarioDeDados-Contas-Cartão-Crédito.xlsx
+++ b/DicionarioDeDados-Contas-Cartão-Crédito.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\erdxbpo\Documents\_AD\OpenBankingData\Febraban\DataOwner\ReviewDOs\Final\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\erdxbpo\OneDrive - Banco Itaú SA\Documentos\AD\OpenBankingData\Febraban\DataOwner\DicionáriosOficiais\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79F22B63-E5D1-4A80-8FE7-2C88F5FE9507}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{79F22B63-E5D1-4A80-8FE7-2C88F5FE9507}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{74F45F4F-2D15-449D-97E5-E46A9863FC0A}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -550,24 +550,12 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B0F0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -611,7 +599,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -658,15 +646,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -682,9 +661,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -727,32 +703,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1064,1239 +1022,1239 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="16" t="s">
+      <c r="B1" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="16" t="s">
+      <c r="E1" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="H1" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="I1" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="17" t="s">
+      <c r="J1" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="18" t="s">
+      <c r="K1" s="27" t="s">
         <v>10</v>
       </c>
       <c r="L1" s="15"/>
     </row>
     <row r="2" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="str">
+      <c r="A2" s="16" t="str">
         <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/",B2)</f>
         <v>openBankingBrazil/&lt;brand&gt;/name</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="24" t="s">
+      <c r="C2" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="D2" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="20">
+      <c r="D2" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="17">
         <v>30</v>
       </c>
-      <c r="F2" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="19" t="s">
+      <c r="F2" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="21"/>
-      <c r="I2" s="22">
-        <v>1</v>
-      </c>
-      <c r="J2" s="22">
-        <v>1</v>
-      </c>
-      <c r="K2" s="23" t="s">
+      <c r="H2" s="18"/>
+      <c r="I2" s="19">
+        <v>1</v>
+      </c>
+      <c r="J2" s="19">
+        <v>1</v>
+      </c>
+      <c r="K2" s="20" t="s">
         <v>15</v>
       </c>
       <c r="L2" s="10"/>
     </row>
     <row r="3" spans="1:12" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="21" t="str">
+      <c r="A3" s="18" t="str">
         <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/",B3)</f>
         <v>openBankingBrazil/&lt;brand&gt;/companies/name</v>
       </c>
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="23" t="s">
+      <c r="C3" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="D3" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="20">
+      <c r="D3" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="17">
         <v>30</v>
       </c>
-      <c r="F3" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="21" t="s">
+      <c r="F3" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="21"/>
-      <c r="I3" s="22">
-        <v>1</v>
-      </c>
-      <c r="J3" s="22">
-        <v>1</v>
-      </c>
-      <c r="K3" s="25" t="s">
+      <c r="H3" s="18"/>
+      <c r="I3" s="19">
+        <v>1</v>
+      </c>
+      <c r="J3" s="19">
+        <v>1</v>
+      </c>
+      <c r="K3" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:12" s="7" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="21" t="str">
+      <c r="A4" s="18" t="str">
         <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/",B4)</f>
         <v>openBankingBrazil/&lt;brand&gt;/companies/cnpjNumber</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="25" t="s">
+      <c r="C4" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="D4" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="20">
+      <c r="D4" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="17">
         <v>14</v>
       </c>
-      <c r="F4" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" s="21" t="s">
+      <c r="F4" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="H4" s="23" t="s">
+      <c r="H4" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="I4" s="22">
-        <v>1</v>
-      </c>
-      <c r="J4" s="22">
-        <v>1</v>
-      </c>
-      <c r="K4" s="23" t="s">
+      <c r="I4" s="19">
+        <v>1</v>
+      </c>
+      <c r="J4" s="19">
+        <v>1</v>
+      </c>
+      <c r="K4" s="20" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="19" t="str">
+      <c r="A5" s="16" t="str">
         <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/personalCreditCards/",B5)</f>
         <v>openBankingBrazil/&lt;brand&gt;/companies/personalCreditCards/name</v>
       </c>
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="23" t="s">
+      <c r="C5" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="D5" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="20">
+      <c r="D5" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="17">
         <v>50</v>
       </c>
-      <c r="F5" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" s="19" t="s">
+      <c r="F5" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="H5" s="23"/>
-      <c r="I5" s="22">
-        <v>1</v>
-      </c>
-      <c r="J5" s="22" t="s">
+      <c r="H5" s="20"/>
+      <c r="I5" s="19">
+        <v>1</v>
+      </c>
+      <c r="J5" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="K5" s="23"/>
+      <c r="K5" s="20"/>
     </row>
     <row r="6" spans="1:12" ht="120" x14ac:dyDescent="0.25">
-      <c r="A6" s="19" t="str">
+      <c r="A6" s="16" t="str">
         <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/personalCreditCards/identification/",B6)</f>
         <v>openBankingBrazil/&lt;brand&gt;/companies/personalCreditCards/identification/productType</v>
       </c>
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="23" t="s">
+      <c r="C6" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="D6" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="27">
+      <c r="D6" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="23">
         <v>100</v>
       </c>
-      <c r="F6" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" s="19" t="s">
+      <c r="F6" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="H6" s="23" t="s">
+      <c r="H6" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="I6" s="22">
-        <v>1</v>
-      </c>
-      <c r="J6" s="22">
-        <v>1</v>
-      </c>
-      <c r="K6" s="25"/>
+      <c r="I6" s="19">
+        <v>1</v>
+      </c>
+      <c r="J6" s="19">
+        <v>1</v>
+      </c>
+      <c r="K6" s="21"/>
     </row>
     <row r="7" spans="1:12" ht="135" x14ac:dyDescent="0.25">
-      <c r="A7" s="19" t="str">
+      <c r="A7" s="16" t="str">
         <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/personalCreditCards/identification/",B7)</f>
         <v>openBankingBrazil/&lt;brand&gt;/companies/personalCreditCards/identification/creditCardNetwork</v>
       </c>
-      <c r="B7" s="26" t="s">
+      <c r="B7" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="C7" s="28" t="s">
+      <c r="C7" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="D7" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="27">
+      <c r="D7" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="23">
         <v>100</v>
       </c>
-      <c r="F7" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="G7" s="19" t="s">
+      <c r="F7" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="H7" s="28" t="s">
+      <c r="H7" s="24" t="s">
         <v>108</v>
       </c>
-      <c r="I7" s="22">
-        <v>1</v>
-      </c>
-      <c r="J7" s="22">
-        <v>1</v>
-      </c>
-      <c r="K7" s="23"/>
+      <c r="I7" s="19">
+        <v>1</v>
+      </c>
+      <c r="J7" s="19">
+        <v>1</v>
+      </c>
+      <c r="K7" s="20"/>
     </row>
     <row r="8" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="A8" s="19" t="str">
+      <c r="A8" s="16" t="str">
         <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/personalCreditCards/identification/",B8)</f>
         <v>openBankingBrazil/&lt;brand&gt;/companies/personalCreditCards/identification/additionalInfo</v>
       </c>
-      <c r="B8" s="26" t="s">
+      <c r="B8" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="28" t="s">
+      <c r="C8" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="D8" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" s="27">
+      <c r="D8" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="23">
         <v>50</v>
       </c>
-      <c r="F8" s="21" t="s">
+      <c r="F8" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="G8" s="19" t="s">
+      <c r="G8" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="H8" s="23"/>
-      <c r="I8" s="22">
+      <c r="H8" s="20"/>
+      <c r="I8" s="19">
         <v>0</v>
       </c>
-      <c r="J8" s="22">
-        <v>1</v>
-      </c>
-      <c r="K8" s="23" t="s">
+      <c r="J8" s="19">
+        <v>1</v>
+      </c>
+      <c r="K8" s="20" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="19" t="str">
+      <c r="A9" s="16" t="str">
         <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/personalCreditCards/rewardsProgram/",B9)</f>
         <v>openBankingBrazil/&lt;brand&gt;/companies/personalCreditCards/rewardsProgram/hasRewardProgram</v>
       </c>
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="C9" s="23" t="s">
+      <c r="C9" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="D9" s="21" t="s">
+      <c r="D9" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="20"/>
-      <c r="F9" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="G9" s="21"/>
-      <c r="H9" s="23" t="s">
+      <c r="E9" s="17"/>
+      <c r="F9" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="18"/>
+      <c r="H9" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="I9" s="22">
-        <v>1</v>
-      </c>
-      <c r="J9" s="22">
-        <v>1</v>
-      </c>
-      <c r="K9" s="23"/>
+      <c r="I9" s="19">
+        <v>1</v>
+      </c>
+      <c r="J9" s="19">
+        <v>1</v>
+      </c>
+      <c r="K9" s="20"/>
     </row>
     <row r="10" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="A10" s="19" t="str">
+      <c r="A10" s="16" t="str">
         <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/personalCreditCards/rewardsProgram/",B10)</f>
         <v>openBankingBrazil/&lt;brand&gt;/companies/personalCreditCards/rewardsProgram/rewardProgramInfo</v>
       </c>
-      <c r="B10" s="21" t="s">
+      <c r="B10" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="C10" s="23" t="s">
+      <c r="C10" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" s="20">
+      <c r="D10" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="17">
         <v>2000</v>
       </c>
-      <c r="F10" s="21" t="s">
+      <c r="F10" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="G10" s="19"/>
-      <c r="H10" s="21"/>
-      <c r="I10" s="22">
+      <c r="G10" s="16"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="19">
         <v>0</v>
       </c>
-      <c r="J10" s="22">
-        <v>1</v>
-      </c>
-      <c r="K10" s="23" t="s">
+      <c r="J10" s="19">
+        <v>1</v>
+      </c>
+      <c r="K10" s="20" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="105" x14ac:dyDescent="0.25">
-      <c r="A11" s="19" t="str">
+      <c r="A11" s="16" t="str">
         <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/personalCreditCards/fees/priorityServices/",B11)</f>
         <v>openBankingBrazil/&lt;brand&gt;/companies/personalCreditCards/fees/priorityServices/code</v>
       </c>
-      <c r="B11" s="19" t="s">
+      <c r="B11" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="25" t="s">
+      <c r="C11" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="D11" s="46" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11" s="20">
+      <c r="D11" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="17">
         <v>30</v>
       </c>
-      <c r="F11" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="G11" s="21"/>
-      <c r="H11" s="32" t="s">
+      <c r="F11" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" s="18"/>
+      <c r="H11" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="I11" s="30">
-        <v>1</v>
-      </c>
-      <c r="J11" s="30">
+      <c r="I11" s="26">
+        <v>1</v>
+      </c>
+      <c r="J11" s="26">
         <v>7</v>
       </c>
-      <c r="K11" s="31"/>
+      <c r="K11" s="27"/>
     </row>
     <row r="12" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="A12" s="39" t="str">
+      <c r="A12" s="16" t="str">
         <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/personalCreditCards/fees/priorityServices/price/",B12)</f>
         <v>openBankingBrazil/&lt;brand&gt;/companies/personalCreditCards/fees/priorityServices/price/interval</v>
       </c>
-      <c r="B12" s="43" t="s">
+      <c r="B12" s="24" t="s">
         <v>101</v>
       </c>
-      <c r="C12" s="40" t="s">
+      <c r="C12" s="20" t="s">
         <v>104</v>
       </c>
-      <c r="D12" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="E12" s="20">
+      <c r="D12" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="17">
         <v>30</v>
       </c>
-      <c r="F12" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="G12" s="21" t="s">
+      <c r="F12" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="H12" s="33" t="s">
+      <c r="H12" s="29" t="s">
         <v>97</v>
       </c>
-      <c r="I12" s="22">
-        <v>4</v>
-      </c>
-      <c r="J12" s="22">
-        <v>4</v>
-      </c>
-      <c r="K12" s="23" t="s">
+      <c r="I12" s="19">
+        <v>4</v>
+      </c>
+      <c r="J12" s="19">
+        <v>4</v>
+      </c>
+      <c r="K12" s="20" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="A13" s="39" t="str">
+      <c r="A13" s="16" t="str">
         <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/personalCreditCards/fees/priorityServices/price/",B13)</f>
         <v>openBankingBrazil/&lt;brand&gt;/companies/personalCreditCards/fees/priorityServices/price/value</v>
       </c>
-      <c r="B13" s="39" t="s">
+      <c r="B13" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="C13" s="41" t="s">
+      <c r="C13" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="D13" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="E13" s="20">
-        <v>12</v>
-      </c>
-      <c r="F13" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="G13" s="21" t="s">
+      <c r="D13" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="17">
+        <v>12</v>
+      </c>
+      <c r="F13" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="H13" s="21"/>
-      <c r="I13" s="22">
-        <v>4</v>
-      </c>
-      <c r="J13" s="22">
-        <v>4</v>
-      </c>
-      <c r="K13" s="23" t="s">
+      <c r="H13" s="18"/>
+      <c r="I13" s="19">
+        <v>4</v>
+      </c>
+      <c r="J13" s="19">
+        <v>4</v>
+      </c>
+      <c r="K13" s="20" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="39" t="str">
+      <c r="A14" s="16" t="str">
         <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/personalCreditCards/fees/priorityServices/price/",B14)</f>
         <v>openBankingBrazil/&lt;brand&gt;/companies/personalCreditCards/fees/priorityServices/price/currency</v>
       </c>
-      <c r="B14" s="39" t="s">
+      <c r="B14" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="41" t="s">
+      <c r="C14" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="D14" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="E14" s="20">
+      <c r="D14" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="17">
         <v>3</v>
       </c>
-      <c r="F14" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="G14" s="21" t="s">
+      <c r="F14" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="H14" s="21"/>
-      <c r="I14" s="22">
-        <v>4</v>
-      </c>
-      <c r="J14" s="22">
-        <v>4</v>
-      </c>
-      <c r="K14" s="23" t="s">
+      <c r="H14" s="18"/>
+      <c r="I14" s="19">
+        <v>4</v>
+      </c>
+      <c r="J14" s="19">
+        <v>4</v>
+      </c>
+      <c r="K14" s="20" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="33" x14ac:dyDescent="0.25">
-      <c r="A15" s="39" t="str">
+      <c r="A15" s="16" t="str">
         <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/personalCreditCards/fees/priorityServices/price/",B15)</f>
         <v>openBankingBrazil/&lt;brand&gt;/companies/personalCreditCards/fees/priorityServices/price/frequency</v>
       </c>
-      <c r="B15" s="39" t="s">
+      <c r="B15" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="C15" s="42" t="s">
+      <c r="C15" s="37" t="s">
         <v>99</v>
       </c>
-      <c r="D15" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="E15" s="20">
+      <c r="D15" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="17">
         <v>7</v>
       </c>
-      <c r="F15" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="G15" s="21" t="s">
+      <c r="F15" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="H15" s="21"/>
-      <c r="I15" s="22">
-        <v>4</v>
-      </c>
-      <c r="J15" s="22">
-        <v>4</v>
-      </c>
-      <c r="K15" s="23" t="s">
+      <c r="H15" s="18"/>
+      <c r="I15" s="19">
+        <v>4</v>
+      </c>
+      <c r="J15" s="19">
+        <v>4</v>
+      </c>
+      <c r="K15" s="20" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="19" t="str">
+      <c r="A16" s="16" t="str">
         <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/personalCreditCards/fees/priorityServices/",B16)</f>
         <v>openBankingBrazil/&lt;brand&gt;/companies/personalCreditCards/fees/priorityServices/chargingUnit</v>
       </c>
-      <c r="B16" s="23" t="s">
+      <c r="B16" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="C16" s="23" t="s">
+      <c r="C16" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="D16" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="E16" s="20">
+      <c r="D16" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" s="17">
         <v>50</v>
       </c>
-      <c r="F16" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="G16" s="21" t="s">
+      <c r="F16" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="G16" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="H16" s="25"/>
-      <c r="I16" s="22">
-        <v>1</v>
-      </c>
-      <c r="J16" s="22">
+      <c r="H16" s="21"/>
+      <c r="I16" s="19">
+        <v>1</v>
+      </c>
+      <c r="J16" s="19">
         <v>7</v>
       </c>
-      <c r="K16" s="23" t="s">
+      <c r="K16" s="20" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A17" s="19" t="str">
+      <c r="A17" s="16" t="str">
         <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/personalCreditCards/fees/otherServices/",B17)</f>
         <v>openBankingBrazil/&lt;brand&gt;/companies/personalCreditCards/fees/otherServices/name</v>
       </c>
-      <c r="B17" s="19" t="s">
+      <c r="B17" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="25" t="s">
+      <c r="C17" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="D17" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="E17" s="20">
+      <c r="D17" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" s="17">
         <v>50</v>
       </c>
-      <c r="F17" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="G17" s="21"/>
-      <c r="H17" s="25"/>
-      <c r="I17" s="30">
-        <v>1</v>
-      </c>
-      <c r="J17" s="30" t="s">
+      <c r="F17" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="G17" s="18"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="26">
+        <v>1</v>
+      </c>
+      <c r="J17" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="K17" s="31"/>
+      <c r="K17" s="27"/>
     </row>
     <row r="18" spans="1:11" ht="75" x14ac:dyDescent="0.25">
-      <c r="A18" s="19" t="str">
+      <c r="A18" s="16" t="str">
         <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/personalCreditCards/fees/otherServices/",B18)</f>
         <v>openBankingBrazil/&lt;brand&gt;/companies/personalCreditCards/fees/otherServices/code</v>
       </c>
-      <c r="B18" s="19" t="s">
+      <c r="B18" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="25" t="s">
+      <c r="C18" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="D18" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="E18" s="20">
+      <c r="D18" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" s="17">
         <v>30</v>
       </c>
-      <c r="F18" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="G18" s="21"/>
-      <c r="H18" s="32"/>
-      <c r="I18" s="30">
-        <v>1</v>
-      </c>
-      <c r="J18" s="30" t="s">
+      <c r="F18" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="G18" s="18"/>
+      <c r="H18" s="28"/>
+      <c r="I18" s="26">
+        <v>1</v>
+      </c>
+      <c r="J18" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="K18" s="31"/>
+      <c r="K18" s="27"/>
     </row>
     <row r="19" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A19" s="19" t="str">
+      <c r="A19" s="16" t="str">
         <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/personalCreditCards/fees/otherServices/",B19)</f>
         <v>openBankingBrazil/&lt;brand&gt;/companies/personalCreditCards/fees/otherServices/chargingTriggerInfo</v>
       </c>
-      <c r="B19" s="19" t="s">
+      <c r="B19" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="C19" s="23" t="s">
+      <c r="C19" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="D19" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="E19" s="20">
+      <c r="D19" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" s="17">
         <v>300</v>
       </c>
-      <c r="F19" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="G19" s="19"/>
-      <c r="H19" s="25"/>
-      <c r="I19" s="30">
-        <v>1</v>
-      </c>
-      <c r="J19" s="30" t="s">
+      <c r="F19" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="G19" s="16"/>
+      <c r="H19" s="21"/>
+      <c r="I19" s="26">
+        <v>1</v>
+      </c>
+      <c r="J19" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="K19" s="23"/>
+      <c r="K19" s="20"/>
     </row>
     <row r="20" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A20" s="39" t="str">
+      <c r="A20" s="16" t="str">
         <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/personalCreditCards/fees/otherServices/price/",B20)</f>
         <v>openBankingBrazil/&lt;brand&gt;/companies/personalCreditCards/fees/otherServices/price/interval</v>
       </c>
-      <c r="B20" s="43" t="s">
+      <c r="B20" s="24" t="s">
         <v>101</v>
       </c>
-      <c r="C20" s="40" t="s">
+      <c r="C20" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="D20" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="E20" s="20">
+      <c r="D20" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20" s="17">
         <v>30</v>
       </c>
-      <c r="F20" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="G20" s="21" t="s">
+      <c r="F20" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="G20" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="H20" s="33" t="s">
+      <c r="H20" s="29" t="s">
         <v>97</v>
       </c>
-      <c r="I20" s="22">
-        <v>4</v>
-      </c>
-      <c r="J20" s="22">
-        <v>4</v>
-      </c>
-      <c r="K20" s="23" t="s">
+      <c r="I20" s="19">
+        <v>4</v>
+      </c>
+      <c r="J20" s="19">
+        <v>4</v>
+      </c>
+      <c r="K20" s="20" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="39" t="str">
+      <c r="A21" s="16" t="str">
         <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/personalCreditCards/fees/otherServices/price/",B21)</f>
         <v>openBankingBrazil/&lt;brand&gt;/companies/personalCreditCards/fees/otherServices/price/value</v>
       </c>
-      <c r="B21" s="40" t="s">
+      <c r="B21" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="C21" s="40" t="s">
+      <c r="C21" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="D21" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="E21" s="20">
-        <v>12</v>
-      </c>
-      <c r="F21" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="G21" s="21" t="s">
+      <c r="D21" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21" s="17">
+        <v>12</v>
+      </c>
+      <c r="F21" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="G21" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="H21" s="21"/>
-      <c r="I21" s="22">
-        <v>4</v>
-      </c>
-      <c r="J21" s="22">
-        <v>4</v>
-      </c>
-      <c r="K21" s="23" t="s">
+      <c r="H21" s="18"/>
+      <c r="I21" s="19">
+        <v>4</v>
+      </c>
+      <c r="J21" s="19">
+        <v>4</v>
+      </c>
+      <c r="K21" s="20" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="39" t="str">
+      <c r="A22" s="16" t="str">
         <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/personalCreditCards/fees/otherServices/price/",B22)</f>
         <v>openBankingBrazil/&lt;brand&gt;/companies/personalCreditCards/fees/otherServices/price/currency</v>
       </c>
-      <c r="B22" s="40" t="s">
+      <c r="B22" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="C22" s="40" t="s">
+      <c r="C22" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="D22" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="E22" s="20">
+      <c r="D22" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="E22" s="17">
         <v>3</v>
       </c>
-      <c r="F22" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="G22" s="21" t="s">
+      <c r="F22" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="G22" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="H22" s="25" t="s">
+      <c r="H22" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="I22" s="22">
-        <v>4</v>
-      </c>
-      <c r="J22" s="22">
-        <v>4</v>
-      </c>
-      <c r="K22" s="23" t="s">
+      <c r="I22" s="19">
+        <v>4</v>
+      </c>
+      <c r="J22" s="19">
+        <v>4</v>
+      </c>
+      <c r="K22" s="20" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="33" x14ac:dyDescent="0.25">
-      <c r="A23" s="39" t="str">
+      <c r="A23" s="16" t="str">
         <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/personalCreditCards/fees/otherServices/price/",B23)</f>
         <v>openBankingBrazil/&lt;brand&gt;/companies/personalCreditCards/fees/otherServices/price/frequency</v>
       </c>
-      <c r="B23" s="40" t="s">
+      <c r="B23" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="C23" s="42" t="s">
+      <c r="C23" s="37" t="s">
         <v>99</v>
       </c>
-      <c r="D23" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="E23" s="20">
+      <c r="D23" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="E23" s="17">
         <v>7</v>
       </c>
-      <c r="F23" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="G23" s="21" t="s">
+      <c r="F23" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="G23" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="H23" s="21"/>
-      <c r="I23" s="22">
-        <v>4</v>
-      </c>
-      <c r="J23" s="22">
-        <v>4</v>
-      </c>
-      <c r="K23" s="23" t="s">
+      <c r="H23" s="18"/>
+      <c r="I23" s="19">
+        <v>4</v>
+      </c>
+      <c r="J23" s="19">
+        <v>4</v>
+      </c>
+      <c r="K23" s="20" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A24" s="19" t="str">
+      <c r="A24" s="16" t="str">
         <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/personalCreditCards/fees/otherServices/",B24)</f>
         <v>openBankingBrazil/&lt;brand&gt;/companies/personalCreditCards/fees/otherServices/additionalInfo</v>
       </c>
-      <c r="B24" s="23" t="s">
+      <c r="B24" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="C24" s="23" t="s">
+      <c r="C24" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="D24" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="E24" s="20">
+      <c r="D24" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="E24" s="17">
         <v>80</v>
       </c>
-      <c r="F24" s="19" t="s">
+      <c r="F24" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="G24" s="21" t="s">
+      <c r="G24" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="H24" s="25"/>
-      <c r="I24" s="22">
+      <c r="H24" s="21"/>
+      <c r="I24" s="19">
         <v>0</v>
       </c>
-      <c r="J24" s="22" t="s">
+      <c r="J24" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="K24" s="23" t="s">
+      <c r="K24" s="20" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="19" t="str">
+      <c r="A25" s="16" t="str">
         <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/personalCreditCards/fees/otherServices/",B25)</f>
         <v>openBankingBrazil/&lt;brand&gt;/companies/personalCreditCards/fees/otherServices/chargingUnit</v>
       </c>
-      <c r="B25" s="23" t="s">
+      <c r="B25" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="C25" s="23" t="s">
+      <c r="C25" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="D25" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="E25" s="20">
+      <c r="D25" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="E25" s="17">
         <v>50</v>
       </c>
-      <c r="F25" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="G25" s="21" t="s">
+      <c r="F25" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="G25" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="H25" s="25"/>
-      <c r="I25" s="22">
-        <v>1</v>
-      </c>
-      <c r="J25" s="22" t="s">
+      <c r="H25" s="21"/>
+      <c r="I25" s="19">
+        <v>1</v>
+      </c>
+      <c r="J25" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="K25" s="23" t="s">
+      <c r="K25" s="20" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A26" s="39" t="str">
+      <c r="A26" s="16" t="str">
         <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/personalCreditCards/interestRates/feeRate/price/",B26)</f>
         <v>openBankingBrazil/&lt;brand&gt;/companies/personalCreditCards/interestRates/feeRate/price/interval</v>
       </c>
-      <c r="B26" s="43" t="s">
+      <c r="B26" s="24" t="s">
         <v>101</v>
       </c>
-      <c r="C26" s="40" t="s">
+      <c r="C26" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="D26" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="E26" s="19">
+      <c r="D26" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="E26" s="16">
         <v>30</v>
       </c>
-      <c r="F26" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="G26" s="19" t="s">
+      <c r="F26" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="G26" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="H26" s="33" t="s">
+      <c r="H26" s="29" t="s">
         <v>97</v>
       </c>
-      <c r="I26" s="22">
-        <v>4</v>
-      </c>
-      <c r="J26" s="22">
-        <v>4</v>
-      </c>
-      <c r="K26" s="23" t="s">
+      <c r="I26" s="19">
+        <v>4</v>
+      </c>
+      <c r="J26" s="19">
+        <v>4</v>
+      </c>
+      <c r="K26" s="20" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A27" s="39" t="str">
+      <c r="A27" s="16" t="str">
         <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/personalCreditCards/interestRates/feeRate/price/",B27)</f>
         <v>openBankingBrazil/&lt;brand&gt;/companies/personalCreditCards/interestRates/feeRate/price/rate</v>
       </c>
-      <c r="B27" s="47" t="s">
+      <c r="B27" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="C27" s="40" t="s">
+      <c r="C27" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="D27" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="E27" s="20">
+      <c r="D27" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="E27" s="17">
         <v>7</v>
       </c>
-      <c r="F27" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="G27" s="19" t="s">
+      <c r="F27" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="G27" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="H27" s="34"/>
-      <c r="I27" s="22">
-        <v>4</v>
-      </c>
-      <c r="J27" s="22">
-        <v>4</v>
-      </c>
-      <c r="K27" s="23" t="s">
+      <c r="H27" s="30"/>
+      <c r="I27" s="19">
+        <v>4</v>
+      </c>
+      <c r="J27" s="19">
+        <v>4</v>
+      </c>
+      <c r="K27" s="20" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="33" x14ac:dyDescent="0.25">
-      <c r="A28" s="39" t="str">
+      <c r="A28" s="16" t="str">
         <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/personalCreditCards/interestRates/feeRate/price/",B28)</f>
         <v>openBankingBrazil/&lt;brand&gt;/companies/personalCreditCards/interestRates/feeRate/price/frequency</v>
       </c>
-      <c r="B28" s="47" t="s">
+      <c r="B28" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="C28" s="42" t="s">
+      <c r="C28" s="37" t="s">
         <v>99</v>
       </c>
-      <c r="D28" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="E28" s="20">
+      <c r="D28" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="E28" s="17">
         <v>7</v>
       </c>
-      <c r="F28" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="G28" s="21" t="s">
+      <c r="F28" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="G28" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="H28" s="21"/>
-      <c r="I28" s="22">
-        <v>4</v>
-      </c>
-      <c r="J28" s="22">
-        <v>4</v>
-      </c>
-      <c r="K28" s="23" t="s">
+      <c r="H28" s="18"/>
+      <c r="I28" s="19">
+        <v>4</v>
+      </c>
+      <c r="J28" s="19">
+        <v>4</v>
+      </c>
+      <c r="K28" s="20" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A29" s="39" t="str">
+      <c r="A29" s="16" t="str">
         <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/personalCreditCards/interestRates/instalmentRate/price/",B29)</f>
         <v>openBankingBrazil/&lt;brand&gt;/companies/personalCreditCards/interestRates/instalmentRate/price/interval</v>
       </c>
-      <c r="B29" s="43" t="s">
+      <c r="B29" s="24" t="s">
         <v>101</v>
       </c>
-      <c r="C29" s="40" t="s">
+      <c r="C29" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="D29" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="E29" s="19">
+      <c r="D29" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="E29" s="16">
         <v>30</v>
       </c>
-      <c r="F29" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="G29" s="19" t="s">
+      <c r="F29" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="G29" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="H29" s="33" t="s">
+      <c r="H29" s="29" t="s">
         <v>97</v>
       </c>
-      <c r="I29" s="22">
-        <v>4</v>
-      </c>
-      <c r="J29" s="22">
-        <v>4</v>
-      </c>
-      <c r="K29" s="23" t="s">
+      <c r="I29" s="19">
+        <v>4</v>
+      </c>
+      <c r="J29" s="19">
+        <v>4</v>
+      </c>
+      <c r="K29" s="20" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A30" s="39" t="str">
+      <c r="A30" s="16" t="str">
         <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/personalCreditCards/interestRates/instalmentRate/price/",B30)</f>
         <v>openBankingBrazil/&lt;brand&gt;/companies/personalCreditCards/interestRates/instalmentRate/price/rate</v>
       </c>
-      <c r="B30" s="39" t="s">
+      <c r="B30" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="C30" s="41" t="s">
+      <c r="C30" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="D30" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="E30" s="35">
+      <c r="D30" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="E30" s="31">
         <v>7</v>
       </c>
-      <c r="F30" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="G30" s="19" t="s">
+      <c r="F30" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="G30" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="H30" s="21"/>
-      <c r="I30" s="22">
-        <v>4</v>
-      </c>
-      <c r="J30" s="22">
-        <v>4</v>
-      </c>
-      <c r="K30" s="23" t="s">
+      <c r="H30" s="18"/>
+      <c r="I30" s="19">
+        <v>4</v>
+      </c>
+      <c r="J30" s="19">
+        <v>4</v>
+      </c>
+      <c r="K30" s="20" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="33" x14ac:dyDescent="0.25">
-      <c r="A31" s="39" t="str">
+      <c r="A31" s="16" t="str">
         <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/personalCreditCards/interestRates/instalmentRate/price/",B31)</f>
         <v>openBankingBrazil/&lt;brand&gt;/companies/personalCreditCards/interestRates/instalmentRate/price/frequency</v>
       </c>
-      <c r="B31" s="39" t="s">
+      <c r="B31" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="C31" s="42" t="s">
+      <c r="C31" s="37" t="s">
         <v>99</v>
       </c>
-      <c r="D31" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="E31" s="20">
+      <c r="D31" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="E31" s="17">
         <v>7</v>
       </c>
-      <c r="F31" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="G31" s="21" t="s">
+      <c r="F31" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="G31" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="H31" s="21"/>
-      <c r="I31" s="22">
-        <v>4</v>
-      </c>
-      <c r="J31" s="22">
-        <v>4</v>
-      </c>
-      <c r="K31" s="23" t="s">
+      <c r="H31" s="18"/>
+      <c r="I31" s="19">
+        <v>4</v>
+      </c>
+      <c r="J31" s="19">
+        <v>4</v>
+      </c>
+      <c r="K31" s="20" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A32" s="19" t="str">
+      <c r="A32" s="16" t="str">
         <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/personalCreditCards/interestRates/",B32)</f>
         <v>openBankingBrazil/&lt;brand&gt;/companies/personalCreditCards/interestRates/code</v>
       </c>
-      <c r="B32" s="19" t="s">
+      <c r="B32" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C32" s="33" t="s">
+      <c r="C32" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="D32" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="E32" s="27">
+      <c r="D32" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="E32" s="23">
         <v>30</v>
       </c>
-      <c r="F32" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="G32" s="26"/>
-      <c r="H32" s="36" t="s">
+      <c r="F32" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="G32" s="22"/>
+      <c r="H32" s="32" t="s">
         <v>109</v>
       </c>
-      <c r="I32" s="22">
-        <v>1</v>
-      </c>
-      <c r="J32" s="22">
-        <v>1</v>
-      </c>
-      <c r="K32" s="23"/>
+      <c r="I32" s="19">
+        <v>1</v>
+      </c>
+      <c r="J32" s="19">
+        <v>1</v>
+      </c>
+      <c r="K32" s="20"/>
     </row>
     <row r="33" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A33" s="19" t="str">
+      <c r="A33" s="16" t="str">
         <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/personalCreditCards/interestRates/",B33)</f>
         <v>openBankingBrazil/&lt;brand&gt;/companies/personalCreditCards/interestRates/additionalInfo</v>
       </c>
-      <c r="B33" s="19" t="s">
+      <c r="B33" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="C33" s="33" t="s">
+      <c r="C33" s="29" t="s">
         <v>72</v>
       </c>
-      <c r="D33" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="E33" s="27">
+      <c r="D33" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="E33" s="23">
         <v>50</v>
       </c>
-      <c r="F33" s="26" t="s">
+      <c r="F33" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="G33" s="26" t="s">
+      <c r="G33" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="H33" s="29"/>
-      <c r="I33" s="22">
+      <c r="H33" s="25"/>
+      <c r="I33" s="19">
         <v>0</v>
       </c>
-      <c r="J33" s="22">
-        <v>1</v>
-      </c>
-      <c r="K33" s="33" t="s">
+      <c r="J33" s="19">
+        <v>1</v>
+      </c>
+      <c r="K33" s="29" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" s="21" t="str">
+      <c r="A34" s="18" t="str">
         <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/personalCreditCards/termsConditions/",B34)</f>
         <v>openBankingBrazil/&lt;brand&gt;/companies/personalCreditCards/termsConditions/minimumFeeRate</v>
       </c>
-      <c r="B34" s="19" t="s">
+      <c r="B34" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="C34" s="25" t="s">
+      <c r="C34" s="21" t="s">
         <v>92</v>
       </c>
-      <c r="D34" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="E34" s="20">
+      <c r="D34" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="E34" s="17">
         <v>7</v>
       </c>
-      <c r="F34" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="G34" s="19" t="s">
+      <c r="F34" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="G34" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="H34" s="21"/>
-      <c r="I34" s="22">
-        <v>1</v>
-      </c>
-      <c r="J34" s="22">
-        <v>1</v>
-      </c>
-      <c r="K34" s="23"/>
+      <c r="H34" s="18"/>
+      <c r="I34" s="19">
+        <v>1</v>
+      </c>
+      <c r="J34" s="19">
+        <v>1</v>
+      </c>
+      <c r="K34" s="20"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35" s="21" t="str">
+      <c r="A35" s="18" t="str">
         <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/personalCreditCards/termsConditions/",B35)</f>
         <v>openBankingBrazil/&lt;brand&gt;/companies/personalCreditCards/termsConditions/additionalInfo</v>
       </c>
-      <c r="B35" s="21" t="s">
+      <c r="B35" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="C35" s="25" t="s">
+      <c r="C35" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="D35" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="E35" s="20">
+      <c r="D35" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="E35" s="17">
         <v>500</v>
       </c>
-      <c r="F35" s="21" t="s">
+      <c r="F35" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="G35" s="19"/>
-      <c r="H35" s="21"/>
-      <c r="I35" s="22">
+      <c r="G35" s="16"/>
+      <c r="H35" s="18"/>
+      <c r="I35" s="19">
         <v>0</v>
       </c>
-      <c r="J35" s="22">
-        <v>1</v>
-      </c>
-      <c r="K35" s="23"/>
+      <c r="J35" s="19">
+        <v>1</v>
+      </c>
+      <c r="K35" s="20"/>
     </row>
     <row r="36" spans="1:11" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A36" s="21" t="str">
+      <c r="A36" s="18" t="str">
         <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/personalCreditCards/termsConditions/",B36)</f>
         <v>openBankingBrazil/&lt;brand&gt;/companies/personalCreditCards/termsConditions/elegibilityCriteriaInfo</v>
       </c>
-      <c r="B36" s="21" t="s">
+      <c r="B36" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="C36" s="23" t="s">
+      <c r="C36" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="D36" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="E36" s="20">
+      <c r="D36" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="E36" s="17">
         <v>2000</v>
       </c>
-      <c r="F36" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="G36" s="19"/>
-      <c r="H36" s="31"/>
-      <c r="I36" s="22">
-        <v>1</v>
-      </c>
-      <c r="J36" s="22">
-        <v>1</v>
-      </c>
-      <c r="K36" s="31"/>
+      <c r="F36" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="G36" s="16"/>
+      <c r="H36" s="27"/>
+      <c r="I36" s="19">
+        <v>1</v>
+      </c>
+      <c r="J36" s="19">
+        <v>1</v>
+      </c>
+      <c r="K36" s="27"/>
     </row>
     <row r="37" spans="1:11" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A37" s="21" t="str">
+      <c r="A37" s="18" t="str">
         <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/personalCreditCards/termsConditions/",B37)</f>
         <v>openBankingBrazil/&lt;brand&gt;/companies/personalCreditCards/termsConditions/closingProcessInfo</v>
       </c>
-      <c r="B37" s="21" t="s">
+      <c r="B37" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="C37" s="23" t="s">
+      <c r="C37" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="D37" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="E37" s="20">
+      <c r="D37" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="E37" s="17">
         <v>2000</v>
       </c>
-      <c r="F37" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="G37" s="19"/>
-      <c r="H37" s="38"/>
-      <c r="I37" s="22">
-        <v>1</v>
-      </c>
-      <c r="J37" s="22">
-        <v>1</v>
-      </c>
-      <c r="K37" s="23"/>
+      <c r="F37" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="G37" s="16"/>
+      <c r="H37" s="34"/>
+      <c r="I37" s="19">
+        <v>1</v>
+      </c>
+      <c r="J37" s="19">
+        <v>1</v>
+      </c>
+      <c r="K37" s="20"/>
     </row>
     <row r="38" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="10"/>
@@ -2438,1037 +2396,1037 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="16" t="s">
+      <c r="B1" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="16" t="s">
+      <c r="E1" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="H1" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="I1" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="17" t="s">
+      <c r="J1" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="18" t="s">
+      <c r="K1" s="27" t="s">
         <v>10</v>
       </c>
       <c r="L1" s="15"/>
     </row>
     <row r="2" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="str">
+      <c r="A2" s="16" t="str">
         <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/",B2)</f>
         <v>openBankingBrazil/&lt;brand&gt;/name</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="23" t="s">
+      <c r="C2" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="D2" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="20">
+      <c r="D2" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="17">
         <v>30</v>
       </c>
-      <c r="F2" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="19" t="s">
+      <c r="F2" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="21"/>
-      <c r="I2" s="22">
-        <v>1</v>
-      </c>
-      <c r="J2" s="22">
-        <v>1</v>
-      </c>
-      <c r="K2" s="23" t="s">
+      <c r="H2" s="18"/>
+      <c r="I2" s="19">
+        <v>1</v>
+      </c>
+      <c r="J2" s="19">
+        <v>1</v>
+      </c>
+      <c r="K2" s="20" t="s">
         <v>15</v>
       </c>
       <c r="L2" s="10"/>
     </row>
     <row r="3" spans="1:12" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="21" t="str">
+      <c r="A3" s="18" t="str">
         <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/",B3)</f>
         <v>openBankingBrazil/&lt;brand&gt;/companies/name</v>
       </c>
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="24" t="s">
+      <c r="C3" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="D3" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="20">
+      <c r="D3" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="17">
         <v>30</v>
       </c>
-      <c r="F3" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="21" t="s">
+      <c r="F3" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="21"/>
-      <c r="I3" s="22">
-        <v>1</v>
-      </c>
-      <c r="J3" s="22">
-        <v>1</v>
-      </c>
-      <c r="K3" s="25" t="s">
+      <c r="H3" s="18"/>
+      <c r="I3" s="19">
+        <v>1</v>
+      </c>
+      <c r="J3" s="19">
+        <v>1</v>
+      </c>
+      <c r="K3" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:12" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="21" t="str">
+      <c r="A4" s="18" t="str">
         <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/",B4)</f>
         <v>openBankingBrazil/&lt;brand&gt;/companies/cnpjNumber</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="23" t="s">
+      <c r="C4" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="D4" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="20">
+      <c r="D4" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="17">
         <v>14</v>
       </c>
-      <c r="F4" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" s="21" t="s">
+      <c r="F4" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="H4" s="23" t="s">
+      <c r="H4" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="I4" s="22">
-        <v>1</v>
-      </c>
-      <c r="J4" s="22">
-        <v>1</v>
-      </c>
-      <c r="K4" s="23" t="s">
+      <c r="I4" s="19">
+        <v>1</v>
+      </c>
+      <c r="J4" s="19">
+        <v>1</v>
+      </c>
+      <c r="K4" s="20" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="19" t="str">
+      <c r="A5" s="16" t="str">
         <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/businessCreditCards/",B5)</f>
         <v>openBankingBrazil/&lt;brand&gt;/companies/businessCreditCards/name</v>
       </c>
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="23" t="s">
+      <c r="C5" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="D5" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="20">
+      <c r="D5" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="17">
         <v>50</v>
       </c>
-      <c r="F5" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" s="19" t="s">
+      <c r="F5" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="H5" s="23"/>
-      <c r="I5" s="22">
-        <v>1</v>
-      </c>
-      <c r="J5" s="22" t="s">
+      <c r="H5" s="20"/>
+      <c r="I5" s="19">
+        <v>1</v>
+      </c>
+      <c r="J5" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="K5" s="23"/>
+      <c r="K5" s="20"/>
     </row>
     <row r="6" spans="1:12" ht="120" x14ac:dyDescent="0.25">
-      <c r="A6" s="19" t="str">
+      <c r="A6" s="16" t="str">
         <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/businessCreditCards/identification/",B6)</f>
         <v>openBankingBrazil/&lt;brand&gt;/companies/businessCreditCards/identification/productType</v>
       </c>
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="23" t="s">
+      <c r="C6" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="D6" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="27">
+      <c r="D6" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="23">
         <v>100</v>
       </c>
-      <c r="F6" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" s="21"/>
-      <c r="H6" s="23" t="s">
+      <c r="F6" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="18"/>
+      <c r="H6" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="I6" s="22">
-        <v>1</v>
-      </c>
-      <c r="J6" s="22">
-        <v>1</v>
-      </c>
-      <c r="K6" s="25"/>
+      <c r="I6" s="19">
+        <v>1</v>
+      </c>
+      <c r="J6" s="19">
+        <v>1</v>
+      </c>
+      <c r="K6" s="21"/>
     </row>
     <row r="7" spans="1:12" ht="135" x14ac:dyDescent="0.25">
-      <c r="A7" s="19" t="str">
+      <c r="A7" s="16" t="str">
         <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/businessCreditCards/identification/",B7)</f>
         <v>openBankingBrazil/&lt;brand&gt;/companies/businessCreditCards/identification/creditCardNetwork</v>
       </c>
-      <c r="B7" s="26" t="s">
+      <c r="B7" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="C7" s="28" t="s">
+      <c r="C7" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="D7" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="27">
+      <c r="D7" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="23">
         <v>100</v>
       </c>
-      <c r="F7" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="G7" s="21"/>
-      <c r="H7" s="23" t="s">
+      <c r="F7" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="18"/>
+      <c r="H7" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="I7" s="22">
-        <v>1</v>
-      </c>
-      <c r="J7" s="22">
-        <v>1</v>
-      </c>
-      <c r="K7" s="23"/>
+      <c r="I7" s="19">
+        <v>1</v>
+      </c>
+      <c r="J7" s="19">
+        <v>1</v>
+      </c>
+      <c r="K7" s="20"/>
     </row>
     <row r="8" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="A8" s="29" t="str">
+      <c r="A8" s="25" t="str">
         <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/businessCreditCards/identification/",B8)</f>
         <v>openBankingBrazil/&lt;brand&gt;/companies/businessCreditCards/identification/additionalInfo</v>
       </c>
-      <c r="B8" s="26" t="s">
+      <c r="B8" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="28" t="s">
+      <c r="C8" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="D8" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" s="27">
+      <c r="D8" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="23">
         <v>50</v>
       </c>
-      <c r="F8" s="21" t="s">
+      <c r="F8" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="G8" s="19" t="s">
+      <c r="G8" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="H8" s="23"/>
-      <c r="I8" s="22">
+      <c r="H8" s="20"/>
+      <c r="I8" s="19">
         <v>0</v>
       </c>
-      <c r="J8" s="22">
-        <v>1</v>
-      </c>
-      <c r="K8" s="23" t="s">
+      <c r="J8" s="19">
+        <v>1</v>
+      </c>
+      <c r="K8" s="20" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="19" t="str">
+      <c r="A9" s="16" t="str">
         <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/businessCreditCards/rewardsProgram/",B9)</f>
         <v>openBankingBrazil/&lt;brand&gt;/companies/businessCreditCards/rewardsProgram/hasRewardProgram</v>
       </c>
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="C9" s="23" t="s">
+      <c r="C9" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="D9" s="21" t="s">
+      <c r="D9" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="20">
-        <v>1</v>
-      </c>
-      <c r="F9" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="G9" s="21" t="s">
+      <c r="E9" s="17">
+        <v>1</v>
+      </c>
+      <c r="F9" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="H9" s="23" t="s">
+      <c r="H9" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="I9" s="22">
-        <v>1</v>
-      </c>
-      <c r="J9" s="22">
-        <v>1</v>
-      </c>
-      <c r="K9" s="23"/>
+      <c r="I9" s="19">
+        <v>1</v>
+      </c>
+      <c r="J9" s="19">
+        <v>1</v>
+      </c>
+      <c r="K9" s="20"/>
     </row>
     <row r="10" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="A10" s="19" t="str">
+      <c r="A10" s="16" t="str">
         <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/businessCreditCards/rewardsProgram/",B10)</f>
         <v>openBankingBrazil/&lt;brand&gt;/companies/businessCreditCards/rewardsProgram/rewardProgramInfo</v>
       </c>
-      <c r="B10" s="21" t="s">
+      <c r="B10" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="C10" s="23" t="s">
+      <c r="C10" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" s="20">
+      <c r="D10" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="17">
         <v>2000</v>
       </c>
-      <c r="F10" s="21" t="s">
+      <c r="F10" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="G10" s="19" t="s">
+      <c r="G10" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="H10" s="21"/>
-      <c r="I10" s="22">
+      <c r="H10" s="18"/>
+      <c r="I10" s="19">
         <v>0</v>
       </c>
-      <c r="J10" s="22">
-        <v>1</v>
-      </c>
-      <c r="K10" s="23" t="s">
+      <c r="J10" s="19">
+        <v>1</v>
+      </c>
+      <c r="K10" s="20" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="A11" s="19" t="str">
+      <c r="A11" s="16" t="str">
         <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/businessCreditCards/fees/services/",B11)</f>
         <v>openBankingBrazil/&lt;brand&gt;/companies/businessCreditCards/fees/services/name</v>
       </c>
-      <c r="B11" s="19" t="s">
+      <c r="B11" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="25" t="s">
+      <c r="C11" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="D11" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11" s="20">
+      <c r="D11" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="17">
         <v>50</v>
       </c>
-      <c r="F11" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="G11" s="21"/>
-      <c r="H11" s="25"/>
-      <c r="I11" s="30">
-        <v>1</v>
-      </c>
-      <c r="J11" s="30" t="s">
+      <c r="F11" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" s="18"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="26">
+        <v>1</v>
+      </c>
+      <c r="J11" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="K11" s="31"/>
+      <c r="K11" s="27"/>
     </row>
     <row r="12" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="A12" s="19" t="str">
+      <c r="A12" s="16" t="str">
         <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/businessCreditCards/fees/services/",B12)</f>
         <v>openBankingBrazil/&lt;brand&gt;/companies/businessCreditCards/fees/services/code</v>
       </c>
-      <c r="B12" s="19" t="s">
+      <c r="B12" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="25" t="s">
+      <c r="C12" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="D12" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="E12" s="20">
+      <c r="D12" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="17">
         <v>30</v>
       </c>
-      <c r="F12" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="G12" s="21"/>
-      <c r="H12" s="32"/>
-      <c r="I12" s="30">
-        <v>1</v>
-      </c>
-      <c r="J12" s="30" t="s">
+      <c r="F12" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" s="18"/>
+      <c r="H12" s="28"/>
+      <c r="I12" s="26">
+        <v>1</v>
+      </c>
+      <c r="J12" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="K12" s="31"/>
+      <c r="K12" s="27"/>
     </row>
     <row r="13" spans="1:12" ht="90" x14ac:dyDescent="0.25">
-      <c r="A13" s="19" t="str">
+      <c r="A13" s="16" t="str">
         <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/businessCreditCards/fees/services/",B13)</f>
         <v>openBankingBrazil/&lt;brand&gt;/companies/businessCreditCards/fees/services/chargingTriggerInfo</v>
       </c>
-      <c r="B13" s="19" t="s">
+      <c r="B13" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="C13" s="23" t="s">
+      <c r="C13" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="D13" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="E13" s="20">
+      <c r="D13" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="17">
         <v>300</v>
       </c>
-      <c r="F13" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="G13" s="19"/>
-      <c r="H13" s="25"/>
-      <c r="I13" s="30">
-        <v>1</v>
-      </c>
-      <c r="J13" s="30" t="s">
+      <c r="F13" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" s="16"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="26">
+        <v>1</v>
+      </c>
+      <c r="J13" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="K13" s="23"/>
+      <c r="K13" s="20"/>
     </row>
     <row r="14" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="A14" s="39" t="str">
+      <c r="A14" s="16" t="str">
         <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/businessCreditCards/fees/services/price/",B14)</f>
         <v>openBankingBrazil/&lt;brand&gt;/companies/businessCreditCards/fees/services/price/interval</v>
       </c>
-      <c r="B14" s="40" t="s">
+      <c r="B14" s="20" t="s">
         <v>101</v>
       </c>
-      <c r="C14" s="40" t="s">
+      <c r="C14" s="20" t="s">
         <v>106</v>
       </c>
-      <c r="D14" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="E14" s="20">
+      <c r="D14" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="17">
         <v>30</v>
       </c>
-      <c r="F14" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="G14" s="21" t="s">
+      <c r="F14" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="H14" s="33" t="s">
+      <c r="H14" s="29" t="s">
         <v>97</v>
       </c>
-      <c r="I14" s="22">
-        <v>4</v>
-      </c>
-      <c r="J14" s="22">
-        <v>4</v>
-      </c>
-      <c r="K14" s="23" t="s">
+      <c r="I14" s="19">
+        <v>4</v>
+      </c>
+      <c r="J14" s="19">
+        <v>4</v>
+      </c>
+      <c r="K14" s="20" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="A15" s="39" t="str">
+      <c r="A15" s="16" t="str">
         <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/businessCreditCards/fees/services/price/",B15)</f>
         <v>openBankingBrazil/&lt;brand&gt;/companies/businessCreditCards/fees/services/price/value</v>
       </c>
-      <c r="B15" s="40" t="s">
+      <c r="B15" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="41" t="s">
+      <c r="C15" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="D15" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="E15" s="20">
-        <v>12</v>
-      </c>
-      <c r="F15" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="G15" s="21" t="s">
+      <c r="D15" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="17">
+        <v>12</v>
+      </c>
+      <c r="F15" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="H15" s="21"/>
-      <c r="I15" s="22">
-        <v>4</v>
-      </c>
-      <c r="J15" s="22">
-        <v>4</v>
-      </c>
-      <c r="K15" s="23" t="s">
+      <c r="H15" s="18"/>
+      <c r="I15" s="19">
+        <v>4</v>
+      </c>
+      <c r="J15" s="19">
+        <v>4</v>
+      </c>
+      <c r="K15" s="20" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A16" s="39" t="str">
+      <c r="A16" s="16" t="str">
         <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/businessCreditCards/fees/services/price/",B16)</f>
         <v>openBankingBrazil/&lt;brand&gt;/companies/businessCreditCards/fees/services/price/currency</v>
       </c>
-      <c r="B16" s="40" t="s">
+      <c r="B16" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="40" t="s">
+      <c r="C16" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="D16" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="E16" s="20">
+      <c r="D16" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" s="17">
         <v>3</v>
       </c>
-      <c r="F16" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="G16" s="21" t="s">
+      <c r="F16" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="G16" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="H16" s="25" t="s">
+      <c r="H16" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="I16" s="22">
-        <v>4</v>
-      </c>
-      <c r="J16" s="22">
-        <v>4</v>
-      </c>
-      <c r="K16" s="23" t="s">
+      <c r="I16" s="19">
+        <v>4</v>
+      </c>
+      <c r="J16" s="19">
+        <v>4</v>
+      </c>
+      <c r="K16" s="20" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="33" x14ac:dyDescent="0.25">
-      <c r="A17" s="39" t="str">
+      <c r="A17" s="16" t="str">
         <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/businessCreditCards/fees/services/price/",B17)</f>
         <v>openBankingBrazil/&lt;brand&gt;/companies/businessCreditCards/fees/services/price/frequency</v>
       </c>
-      <c r="B17" s="39" t="s">
+      <c r="B17" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="C17" s="42" t="s">
+      <c r="C17" s="37" t="s">
         <v>99</v>
       </c>
-      <c r="D17" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="E17" s="20">
+      <c r="D17" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" s="17">
         <v>7</v>
       </c>
-      <c r="F17" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="G17" s="21" t="s">
+      <c r="F17" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="G17" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="H17" s="21"/>
-      <c r="I17" s="22">
-        <v>4</v>
-      </c>
-      <c r="J17" s="22">
-        <v>4</v>
-      </c>
-      <c r="K17" s="23" t="s">
+      <c r="H17" s="18"/>
+      <c r="I17" s="19">
+        <v>4</v>
+      </c>
+      <c r="J17" s="19">
+        <v>4</v>
+      </c>
+      <c r="K17" s="20" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A18" s="19" t="str">
+      <c r="A18" s="16" t="str">
         <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/businessCreditCards/fees/services/",B18)</f>
         <v>openBankingBrazil/&lt;brand&gt;/companies/businessCreditCards/fees/services/additionalInfo</v>
       </c>
-      <c r="B18" s="28" t="s">
+      <c r="B18" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="C18" s="28" t="s">
+      <c r="C18" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="D18" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="E18" s="20">
+      <c r="D18" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" s="17">
         <v>80</v>
       </c>
-      <c r="F18" s="19" t="s">
+      <c r="F18" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="G18" s="21" t="s">
+      <c r="G18" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="H18" s="25"/>
-      <c r="I18" s="22">
+      <c r="H18" s="21"/>
+      <c r="I18" s="19">
         <v>0</v>
       </c>
-      <c r="J18" s="22" t="s">
+      <c r="J18" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="K18" s="23" t="s">
+      <c r="K18" s="20" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="19" t="str">
+      <c r="A19" s="16" t="str">
         <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/businessCreditCards/fees/services/",B19)</f>
         <v>openBankingBrazil/&lt;brand&gt;/companies/businessCreditCards/fees/services/chargingUnit</v>
       </c>
-      <c r="B19" s="28" t="s">
+      <c r="B19" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="C19" s="28" t="s">
+      <c r="C19" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="D19" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="E19" s="20">
+      <c r="D19" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" s="17">
         <v>50</v>
       </c>
-      <c r="F19" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="G19" s="21" t="s">
+      <c r="F19" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="G19" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="H19" s="25"/>
-      <c r="I19" s="22">
-        <v>1</v>
-      </c>
-      <c r="J19" s="22" t="s">
+      <c r="H19" s="21"/>
+      <c r="I19" s="19">
+        <v>1</v>
+      </c>
+      <c r="J19" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="K19" s="23" t="s">
+      <c r="K19" s="20" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="75" x14ac:dyDescent="0.25">
-      <c r="A20" s="39" t="str">
+      <c r="A20" s="16" t="str">
         <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/businessCreditCards/interestRates/feeRate/price/",B20)</f>
         <v>openBankingBrazil/&lt;brand&gt;/companies/businessCreditCards/interestRates/feeRate/price/interval</v>
       </c>
-      <c r="B20" s="43" t="s">
+      <c r="B20" s="24" t="s">
         <v>101</v>
       </c>
-      <c r="C20" s="40" t="s">
+      <c r="C20" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="D20" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="E20" s="19">
+      <c r="D20" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20" s="16">
         <v>30</v>
       </c>
-      <c r="F20" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="G20" s="19" t="s">
+      <c r="F20" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="G20" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="H20" s="34" t="s">
+      <c r="H20" s="30" t="s">
         <v>107</v>
       </c>
-      <c r="I20" s="22">
-        <v>4</v>
-      </c>
-      <c r="J20" s="22">
-        <v>4</v>
-      </c>
-      <c r="K20" s="23" t="s">
+      <c r="I20" s="19">
+        <v>4</v>
+      </c>
+      <c r="J20" s="19">
+        <v>4</v>
+      </c>
+      <c r="K20" s="20" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A21" s="39" t="str">
+      <c r="A21" s="16" t="str">
         <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/businessCreditCards/interestRates/feeRate/price/",B21)</f>
         <v>openBankingBrazil/&lt;brand&gt;/companies/businessCreditCards/interestRates/feeRate/price/rate</v>
       </c>
-      <c r="B21" s="44" t="s">
+      <c r="B21" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="C21" s="40" t="s">
+      <c r="C21" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="D21" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="E21" s="20">
+      <c r="D21" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21" s="17">
         <v>7</v>
       </c>
-      <c r="F21" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="G21" s="19" t="s">
+      <c r="F21" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="G21" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="H21" s="34"/>
-      <c r="I21" s="22">
-        <v>4</v>
-      </c>
-      <c r="J21" s="22">
-        <v>4</v>
-      </c>
-      <c r="K21" s="23" t="s">
+      <c r="H21" s="30"/>
+      <c r="I21" s="19">
+        <v>4</v>
+      </c>
+      <c r="J21" s="19">
+        <v>4</v>
+      </c>
+      <c r="K21" s="20" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="33" x14ac:dyDescent="0.25">
-      <c r="A22" s="39" t="str">
+      <c r="A22" s="16" t="str">
         <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/businessCreditCards/interestRates/feeRate/price/",B22)</f>
         <v>openBankingBrazil/&lt;brand&gt;/companies/businessCreditCards/interestRates/feeRate/price/frequency</v>
       </c>
-      <c r="B22" s="40" t="s">
+      <c r="B22" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="C22" s="42" t="s">
+      <c r="C22" s="37" t="s">
         <v>99</v>
       </c>
-      <c r="D22" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="E22" s="20">
+      <c r="D22" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="E22" s="17">
         <v>7</v>
       </c>
-      <c r="F22" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="G22" s="21" t="s">
+      <c r="F22" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="G22" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="H22" s="21"/>
-      <c r="I22" s="22">
-        <v>4</v>
-      </c>
-      <c r="J22" s="22">
-        <v>4</v>
-      </c>
-      <c r="K22" s="23" t="s">
+      <c r="H22" s="18"/>
+      <c r="I22" s="19">
+        <v>4</v>
+      </c>
+      <c r="J22" s="19">
+        <v>4</v>
+      </c>
+      <c r="K22" s="20" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="75" x14ac:dyDescent="0.25">
-      <c r="A23" s="39" t="str">
+      <c r="A23" s="16" t="str">
         <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/businessCreditCards/interestRates/instalmentRate/price/",B23)</f>
         <v>openBankingBrazil/&lt;brand&gt;/companies/businessCreditCards/interestRates/instalmentRate/price/interval</v>
       </c>
-      <c r="B23" s="43" t="s">
+      <c r="B23" s="24" t="s">
         <v>101</v>
       </c>
-      <c r="C23" s="40" t="s">
+      <c r="C23" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="D23" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="E23" s="19">
+      <c r="D23" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="E23" s="16">
         <v>30</v>
       </c>
-      <c r="F23" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="G23" s="19" t="s">
+      <c r="F23" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="G23" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="H23" s="34" t="s">
+      <c r="H23" s="30" t="s">
         <v>107</v>
       </c>
-      <c r="I23" s="22">
-        <v>4</v>
-      </c>
-      <c r="J23" s="22">
-        <v>4</v>
-      </c>
-      <c r="K23" s="23" t="s">
+      <c r="I23" s="19">
+        <v>4</v>
+      </c>
+      <c r="J23" s="19">
+        <v>4</v>
+      </c>
+      <c r="K23" s="20" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A24" s="39" t="str">
+      <c r="A24" s="16" t="str">
         <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/businessCreditCards/interestRates/instalmentRate/price/",B24)</f>
         <v>openBankingBrazil/&lt;brand&gt;/companies/businessCreditCards/interestRates/instalmentRate/price/rate</v>
       </c>
-      <c r="B24" s="45" t="s">
+      <c r="B24" s="25" t="s">
         <v>91</v>
       </c>
-      <c r="C24" s="41" t="s">
+      <c r="C24" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="D24" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="E24" s="35">
+      <c r="D24" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="E24" s="31">
         <v>7</v>
       </c>
-      <c r="F24" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="G24" s="19" t="s">
+      <c r="F24" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="G24" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="H24" s="21"/>
-      <c r="I24" s="22">
-        <v>4</v>
-      </c>
-      <c r="J24" s="22">
-        <v>4</v>
-      </c>
-      <c r="K24" s="23" t="s">
+      <c r="H24" s="18"/>
+      <c r="I24" s="19">
+        <v>4</v>
+      </c>
+      <c r="J24" s="19">
+        <v>4</v>
+      </c>
+      <c r="K24" s="20" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="33" x14ac:dyDescent="0.25">
-      <c r="A25" s="39" t="str">
+      <c r="A25" s="16" t="str">
         <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/businessCreditCards/interestRates/instalmentRate/price/",B25)</f>
         <v>openBankingBrazil/&lt;brand&gt;/companies/businessCreditCards/interestRates/instalmentRate/price/frequency</v>
       </c>
-      <c r="B25" s="39" t="s">
+      <c r="B25" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="C25" s="42" t="s">
+      <c r="C25" s="37" t="s">
         <v>99</v>
       </c>
-      <c r="D25" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="E25" s="20">
+      <c r="D25" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="E25" s="17">
         <v>7</v>
       </c>
-      <c r="F25" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="G25" s="21" t="s">
+      <c r="F25" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="G25" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="H25" s="21"/>
-      <c r="I25" s="22">
-        <v>4</v>
-      </c>
-      <c r="J25" s="22">
-        <v>4</v>
-      </c>
-      <c r="K25" s="23" t="s">
+      <c r="H25" s="18"/>
+      <c r="I25" s="19">
+        <v>4</v>
+      </c>
+      <c r="J25" s="19">
+        <v>4</v>
+      </c>
+      <c r="K25" s="20" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="19" t="str">
+      <c r="A26" s="16" t="str">
         <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/businessCreditCards/interestRates/",B26)</f>
         <v>openBankingBrazil/&lt;brand&gt;/companies/businessCreditCards/interestRates/code</v>
       </c>
-      <c r="B26" s="29" t="s">
+      <c r="B26" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="C26" s="36" t="s">
+      <c r="C26" s="32" t="s">
         <v>64</v>
       </c>
-      <c r="D26" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="E26" s="20">
+      <c r="D26" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="E26" s="17">
         <v>30</v>
       </c>
-      <c r="F26" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="G26" s="21"/>
-      <c r="H26" s="33" t="s">
+      <c r="F26" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="G26" s="18"/>
+      <c r="H26" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="I26" s="22">
-        <v>1</v>
-      </c>
-      <c r="J26" s="22">
-        <v>1</v>
-      </c>
-      <c r="K26" s="23"/>
+      <c r="I26" s="19">
+        <v>1</v>
+      </c>
+      <c r="J26" s="19">
+        <v>1</v>
+      </c>
+      <c r="K26" s="20"/>
     </row>
     <row r="27" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="19" t="str">
+      <c r="A27" s="16" t="str">
         <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/businessCreditCards/interestRates/",B27)</f>
         <v>openBankingBrazil/&lt;brand&gt;/companies/businessCreditCards/interestRates/additionalInfo</v>
       </c>
-      <c r="B27" s="29" t="s">
+      <c r="B27" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="C27" s="36" t="s">
+      <c r="C27" s="32" t="s">
         <v>72</v>
       </c>
-      <c r="D27" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="E27" s="20">
+      <c r="D27" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="E27" s="17">
         <v>50</v>
       </c>
-      <c r="F27" s="21" t="s">
+      <c r="F27" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="G27" s="21" t="s">
+      <c r="G27" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="H27" s="19"/>
-      <c r="I27" s="22">
+      <c r="H27" s="16"/>
+      <c r="I27" s="19">
         <v>0</v>
       </c>
-      <c r="J27" s="22">
-        <v>1</v>
-      </c>
-      <c r="K27" s="33" t="s">
+      <c r="J27" s="19">
+        <v>1</v>
+      </c>
+      <c r="K27" s="29" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="21" t="str">
+      <c r="A28" s="18" t="str">
         <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/businessCreditCards/termsConditions/",B28)</f>
         <v>openBankingBrazil/&lt;brand&gt;/companies/businessCreditCards/termsConditions/minimumFeeRate</v>
       </c>
-      <c r="B28" s="29" t="s">
+      <c r="B28" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="C28" s="37" t="s">
+      <c r="C28" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="D28" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="E28" s="20">
+      <c r="D28" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="E28" s="17">
         <v>7</v>
       </c>
-      <c r="F28" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="G28" s="19" t="s">
+      <c r="F28" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="G28" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="H28" s="21"/>
-      <c r="I28" s="22">
-        <v>1</v>
-      </c>
-      <c r="J28" s="22">
-        <v>1</v>
-      </c>
-      <c r="K28" s="23"/>
+      <c r="H28" s="18"/>
+      <c r="I28" s="19">
+        <v>1</v>
+      </c>
+      <c r="J28" s="19">
+        <v>1</v>
+      </c>
+      <c r="K28" s="20"/>
     </row>
     <row r="29" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="21" t="str">
+      <c r="A29" s="18" t="str">
         <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/businessCreditCards/termsConditions/",B29)</f>
         <v>openBankingBrazil/&lt;brand&gt;/companies/businessCreditCards/termsConditions/additionalInfo</v>
       </c>
-      <c r="B29" s="21" t="s">
+      <c r="B29" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="C29" s="25" t="s">
+      <c r="C29" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="D29" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="E29" s="20">
+      <c r="D29" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="E29" s="17">
         <v>500</v>
       </c>
-      <c r="F29" s="21" t="s">
+      <c r="F29" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="G29" s="19"/>
-      <c r="H29" s="21"/>
-      <c r="I29" s="22">
+      <c r="G29" s="16"/>
+      <c r="H29" s="18"/>
+      <c r="I29" s="19">
         <v>0</v>
       </c>
-      <c r="J29" s="22">
-        <v>1</v>
-      </c>
-      <c r="K29" s="23"/>
+      <c r="J29" s="19">
+        <v>1</v>
+      </c>
+      <c r="K29" s="20"/>
     </row>
     <row r="30" spans="1:11" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="21" t="str">
+      <c r="A30" s="18" t="str">
         <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/businessCreditCards/termsConditions/",B30)</f>
         <v>openBankingBrazil/&lt;brand&gt;/companies/businessCreditCards/termsConditions/elegibilityCriteriaInfo</v>
       </c>
-      <c r="B30" s="21" t="s">
+      <c r="B30" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="C30" s="23" t="s">
+      <c r="C30" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="D30" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="E30" s="20">
+      <c r="D30" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="E30" s="17">
         <v>2000</v>
       </c>
-      <c r="F30" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="G30" s="19"/>
-      <c r="H30" s="31"/>
-      <c r="I30" s="22">
-        <v>1</v>
-      </c>
-      <c r="J30" s="22">
-        <v>1</v>
-      </c>
-      <c r="K30" s="31"/>
+      <c r="F30" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="G30" s="16"/>
+      <c r="H30" s="27"/>
+      <c r="I30" s="19">
+        <v>1</v>
+      </c>
+      <c r="J30" s="19">
+        <v>1</v>
+      </c>
+      <c r="K30" s="27"/>
     </row>
     <row r="31" spans="1:11" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="21" t="str">
+      <c r="A31" s="18" t="str">
         <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/businessCreditCards/termsConditions/",B31)</f>
         <v>openBankingBrazil/&lt;brand&gt;/companies/businessCreditCards/termsConditions/closingProcessInfo</v>
       </c>
-      <c r="B31" s="21" t="s">
+      <c r="B31" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="C31" s="23" t="s">
+      <c r="C31" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="D31" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="E31" s="20">
+      <c r="D31" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="E31" s="17">
         <v>2000</v>
       </c>
-      <c r="F31" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="G31" s="19"/>
-      <c r="H31" s="38"/>
-      <c r="I31" s="22">
-        <v>1</v>
-      </c>
-      <c r="J31" s="22">
-        <v>1</v>
-      </c>
-      <c r="K31" s="23"/>
+      <c r="F31" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="G31" s="16"/>
+      <c r="H31" s="34"/>
+      <c r="I31" s="19">
+        <v>1</v>
+      </c>
+      <c r="J31" s="19">
+        <v>1</v>
+      </c>
+      <c r="K31" s="20"/>
     </row>
     <row r="32" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="10"/>

--- a/DicionarioDeDados-Contas-Cartão-Crédito.xlsx
+++ b/DicionarioDeDados-Contas-Cartão-Crédito.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\erdxbpo\OneDrive - Banco Itaú SA\Documentos\AD\OpenBankingData\Febraban\DataOwner\DicionáriosOficiais\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{79F22B63-E5D1-4A80-8FE7-2C88F5FE9507}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{74F45F4F-2D15-449D-97E5-E46A9863FC0A}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="13_ncr:1_{79F22B63-E5D1-4A80-8FE7-2C88F5FE9507}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{5C67EC18-4825-491D-8E19-D6230EE74579}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="109">
   <si>
     <t>Xpath</t>
   </si>
@@ -415,12 +415,6 @@
     <t>frequency</t>
   </si>
   <si>
-    <t>'1ª faixa de valor'
-'2ª faixa de valor'
-'3ª faixa de valor'
-'4ª faixa de valor'</t>
-  </si>
-  <si>
     <t>Percentual que corresponde a taxa média aplicada para pagamento parcelado do saldo devedor quando não realizado pagamento integral da fatura, no período informado. p.ex. '4,10%'.
 (representação de uma porcentagem Ex: 0.15 (O valor ao lado representa 15%. O valor 1 representa 100%))</t>
   </si>
@@ -448,13 +442,6 @@
   </si>
   <si>
     <t>Faixas para cobrança de valores de tarifas por serviço informado: 1ª Faixa de valores, 2ª faixa de valores, 3ª faixa de valores, 4ª faixa de valores</t>
-  </si>
-  <si>
-    <t>mínimo'
-'1ª faixa de clientes'
-'2ª faixa de clientes'
-'3ª faixa de clientes'
-'4ª faixa de clientes'</t>
   </si>
   <si>
     <r>
@@ -494,6 +481,12 @@
       </rPr>
       <t>Outros</t>
     </r>
+  </si>
+  <si>
+    <t>1ª faixa de valores'
+'2ª faixa de valores'
+'3ª faixa de valores'
+'4ª faixa de valores'</t>
   </si>
 </sst>
 </file>
@@ -1252,7 +1245,7 @@
         <v>65</v>
       </c>
       <c r="H7" s="24" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="I7" s="19">
         <v>1</v>
@@ -1396,10 +1389,10 @@
         <v>openBankingBrazil/&lt;brand&gt;/companies/personalCreditCards/fees/priorityServices/price/interval</v>
       </c>
       <c r="B12" s="24" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C12" s="20" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D12" s="16" t="s">
         <v>12</v>
@@ -1414,7 +1407,7 @@
         <v>65</v>
       </c>
       <c r="H12" s="29" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="I12" s="19">
         <v>4</v>
@@ -1503,7 +1496,7 @@
         <v>96</v>
       </c>
       <c r="C15" s="37" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D15" s="18" t="s">
         <v>12</v>
@@ -1658,10 +1651,10 @@
         <v>openBankingBrazil/&lt;brand&gt;/companies/personalCreditCards/fees/otherServices/price/interval</v>
       </c>
       <c r="B20" s="24" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D20" s="16" t="s">
         <v>12</v>
@@ -1676,7 +1669,7 @@
         <v>65</v>
       </c>
       <c r="H20" s="29" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="I20" s="19">
         <v>4</v>
@@ -1767,7 +1760,7 @@
         <v>96</v>
       </c>
       <c r="C23" s="37" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D23" s="18" t="s">
         <v>12</v>
@@ -1866,10 +1859,10 @@
         <v>openBankingBrazil/&lt;brand&gt;/companies/personalCreditCards/interestRates/feeRate/price/interval</v>
       </c>
       <c r="B26" s="24" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C26" s="20" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D26" s="16" t="s">
         <v>12</v>
@@ -1884,7 +1877,7 @@
         <v>65</v>
       </c>
       <c r="H26" s="29" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="I26" s="19">
         <v>4</v>
@@ -1939,7 +1932,7 @@
         <v>96</v>
       </c>
       <c r="C28" s="37" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D28" s="18" t="s">
         <v>12</v>
@@ -1970,10 +1963,10 @@
         <v>openBankingBrazil/&lt;brand&gt;/companies/personalCreditCards/interestRates/instalmentRate/price/interval</v>
       </c>
       <c r="B29" s="24" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C29" s="20" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D29" s="16" t="s">
         <v>12</v>
@@ -1988,7 +1981,7 @@
         <v>65</v>
       </c>
       <c r="H29" s="29" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="I29" s="19">
         <v>4</v>
@@ -2009,7 +2002,7 @@
         <v>91</v>
       </c>
       <c r="C30" s="21" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D30" s="18" t="s">
         <v>12</v>
@@ -2043,7 +2036,7 @@
         <v>96</v>
       </c>
       <c r="C31" s="37" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D31" s="18" t="s">
         <v>12</v>
@@ -2090,7 +2083,7 @@
       </c>
       <c r="G32" s="22"/>
       <c r="H32" s="32" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="I32" s="19">
         <v>1</v>
@@ -2373,7 +2366,7 @@
   <dimension ref="A1:L39"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="H20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight"/>
@@ -2830,10 +2823,10 @@
         <v>openBankingBrazil/&lt;brand&gt;/companies/businessCreditCards/fees/services/price/interval</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D14" s="16" t="s">
         <v>12</v>
@@ -2848,7 +2841,7 @@
         <v>65</v>
       </c>
       <c r="H14" s="29" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="I14" s="19">
         <v>4</v>
@@ -2869,7 +2862,7 @@
         <v>43</v>
       </c>
       <c r="C15" s="21" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D15" s="18" t="s">
         <v>12</v>
@@ -2939,7 +2932,7 @@
         <v>96</v>
       </c>
       <c r="C17" s="37" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D17" s="18" t="s">
         <v>12</v>
@@ -3032,16 +3025,16 @@
         <v>41</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A20" s="16" t="str">
         <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/businessCreditCards/interestRates/feeRate/price/",B20)</f>
         <v>openBankingBrazil/&lt;brand&gt;/companies/businessCreditCards/interestRates/feeRate/price/interval</v>
       </c>
       <c r="B20" s="24" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D20" s="16" t="s">
         <v>12</v>
@@ -3055,8 +3048,8 @@
       <c r="G20" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="H20" s="30" t="s">
-        <v>107</v>
+      <c r="H20" s="29" t="s">
+        <v>108</v>
       </c>
       <c r="I20" s="19">
         <v>4</v>
@@ -3111,7 +3104,7 @@
         <v>96</v>
       </c>
       <c r="C22" s="37" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D22" s="18" t="s">
         <v>12</v>
@@ -3136,16 +3129,16 @@
         <v>85</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A23" s="16" t="str">
         <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/businessCreditCards/interestRates/instalmentRate/price/",B23)</f>
         <v>openBankingBrazil/&lt;brand&gt;/companies/businessCreditCards/interestRates/instalmentRate/price/interval</v>
       </c>
       <c r="B23" s="24" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C23" s="20" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D23" s="16" t="s">
         <v>12</v>
@@ -3159,8 +3152,8 @@
       <c r="G23" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="H23" s="30" t="s">
-        <v>107</v>
+      <c r="H23" s="29" t="s">
+        <v>108</v>
       </c>
       <c r="I23" s="19">
         <v>4</v>
@@ -3181,7 +3174,7 @@
         <v>91</v>
       </c>
       <c r="C24" s="21" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D24" s="18" t="s">
         <v>12</v>
@@ -3215,7 +3208,7 @@
         <v>96</v>
       </c>
       <c r="C25" s="37" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D25" s="18" t="s">
         <v>12</v>

--- a/DicionarioDeDados-Contas-Cartão-Crédito.xlsx
+++ b/DicionarioDeDados-Contas-Cartão-Crédito.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\erdxbpo\OneDrive - Banco Itaú SA\Documentos\AD\OpenBankingData\Febraban\DataOwner\DicionáriosOficiais\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="12" documentId="13_ncr:1_{79F22B63-E5D1-4A80-8FE7-2C88F5FE9507}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{5C67EC18-4825-491D-8E19-D6230EE74579}"/>
+  <xr:revisionPtr revIDLastSave="16" documentId="13_ncr:1_{79F22B63-E5D1-4A80-8FE7-2C88F5FE9507}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{FF84DFAC-FCDA-48A2-A52D-DCD1E73F998B}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="107">
   <si>
     <t>Xpath</t>
   </si>
@@ -156,9 +156,6 @@
   </si>
   <si>
     <t>chargingUnit</t>
-  </si>
-  <si>
-    <t>Unidade ou forma de cobrança. P.ex. 'Por depósito recebido'</t>
   </si>
   <si>
     <t>este campo sempre deverá estar preenchido</t>
@@ -198,9 +195,6 @@
   <si>
     <t>Sigla de identificação do serviço relacionado à Modalidade de Contas de Pagamento Pós-Pagas para pessoa jurídica informada. P.ex. p.ex. '2a VIA CARTÃO CRÉDITO' 
 Para as pessoas jurídicas, não há uma regulamentação específica sobre os serviços a serem prestados, como há para pessoas físicas.</t>
-  </si>
-  <si>
-    <t>Unidade ou forma de cobrança. P.ex. 'Por evento'</t>
   </si>
   <si>
     <t>Nomes das Tarifas cobradas sobre Serviços relacionados à Modalidade de Contas de Pagamento Pós-Pagas para pessoa física e que não estejam na resolução 3.919 do BACEN. p.ex. 'Cartão adicional'
@@ -1059,7 +1053,7 @@
         <v>11</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D2" s="16" t="s">
         <v>12</v>
@@ -1094,7 +1088,7 @@
         <v>11</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D3" s="18" t="s">
         <v>12</v>
@@ -1128,7 +1122,7 @@
         <v>16</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D4" s="18" t="s">
         <v>12</v>
@@ -1143,7 +1137,7 @@
         <v>17</v>
       </c>
       <c r="H4" s="20" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="I4" s="19">
         <v>1</v>
@@ -1164,7 +1158,7 @@
         <v>11</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D5" s="18" t="s">
         <v>12</v>
@@ -1196,7 +1190,7 @@
         <v>19</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D6" s="22" t="s">
         <v>12</v>
@@ -1208,10 +1202,10 @@
         <v>13</v>
       </c>
       <c r="G6" s="16" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H6" s="20" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I6" s="19">
         <v>1</v>
@@ -1227,10 +1221,10 @@
         <v>openBankingBrazil/&lt;brand&gt;/companies/personalCreditCards/identification/creditCardNetwork</v>
       </c>
       <c r="B7" s="22" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C7" s="24" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D7" s="22" t="s">
         <v>12</v>
@@ -1242,10 +1236,10 @@
         <v>13</v>
       </c>
       <c r="G7" s="16" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H7" s="24" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="I7" s="19">
         <v>1</v>
@@ -1264,7 +1258,7 @@
         <v>32</v>
       </c>
       <c r="C8" s="24" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D8" s="22" t="s">
         <v>12</v>
@@ -1286,7 +1280,7 @@
         <v>1</v>
       </c>
       <c r="K8" s="20" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="45" x14ac:dyDescent="0.25">
@@ -1295,10 +1289,10 @@
         <v>openBankingBrazil/&lt;brand&gt;/companies/personalCreditCards/rewardsProgram/hasRewardProgram</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C9" s="20" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D9" s="18" t="s">
         <v>20</v>
@@ -1309,7 +1303,7 @@
       </c>
       <c r="G9" s="18"/>
       <c r="H9" s="20" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="I9" s="19">
         <v>1</v>
@@ -1325,7 +1319,7 @@
         <v>openBankingBrazil/&lt;brand&gt;/companies/personalCreditCards/rewardsProgram/rewardProgramInfo</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C10" s="20" t="s">
         <v>22</v>
@@ -1348,7 +1342,7 @@
         <v>1</v>
       </c>
       <c r="K10" s="20" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="105" x14ac:dyDescent="0.25">
@@ -1360,7 +1354,7 @@
         <v>24</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D11" s="35" t="s">
         <v>12</v>
@@ -1373,7 +1367,7 @@
       </c>
       <c r="G11" s="18"/>
       <c r="H11" s="28" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I11" s="26">
         <v>1</v>
@@ -1389,10 +1383,10 @@
         <v>openBankingBrazil/&lt;brand&gt;/companies/personalCreditCards/fees/priorityServices/price/interval</v>
       </c>
       <c r="B12" s="24" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C12" s="20" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D12" s="16" t="s">
         <v>12</v>
@@ -1404,10 +1398,10 @@
         <v>13</v>
       </c>
       <c r="G12" s="18" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H12" s="29" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="I12" s="19">
         <v>4</v>
@@ -1416,7 +1410,7 @@
         <v>4</v>
       </c>
       <c r="K12" s="20" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="60" x14ac:dyDescent="0.25">
@@ -1425,22 +1419,22 @@
         <v>openBankingBrazil/&lt;brand&gt;/companies/personalCreditCards/fees/priorityServices/price/value</v>
       </c>
       <c r="B13" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="17">
+        <v>12</v>
+      </c>
+      <c r="F13" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" s="18" t="s">
         <v>43</v>
-      </c>
-      <c r="C13" s="21" t="s">
-        <v>93</v>
-      </c>
-      <c r="D13" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="E13" s="17">
-        <v>12</v>
-      </c>
-      <c r="F13" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="G13" s="18" t="s">
-        <v>44</v>
       </c>
       <c r="H13" s="18"/>
       <c r="I13" s="19">
@@ -1450,7 +1444,7 @@
         <v>4</v>
       </c>
       <c r="K13" s="20" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -1484,7 +1478,7 @@
         <v>4</v>
       </c>
       <c r="K14" s="20" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="33" x14ac:dyDescent="0.25">
@@ -1493,10 +1487,10 @@
         <v>openBankingBrazil/&lt;brand&gt;/companies/personalCreditCards/fees/priorityServices/price/frequency</v>
       </c>
       <c r="B15" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="C15" s="37" t="s">
         <v>96</v>
-      </c>
-      <c r="C15" s="37" t="s">
-        <v>98</v>
       </c>
       <c r="D15" s="18" t="s">
         <v>12</v>
@@ -1518,7 +1512,7 @@
         <v>4</v>
       </c>
       <c r="K15" s="20" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
@@ -1530,7 +1524,7 @@
         <v>39</v>
       </c>
       <c r="C16" s="20" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="D16" s="16" t="s">
         <v>12</v>
@@ -1552,7 +1546,7 @@
         <v>7</v>
       </c>
       <c r="K16" s="20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -1564,7 +1558,7 @@
         <v>11</v>
       </c>
       <c r="C17" s="21" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D17" s="18" t="s">
         <v>12</v>
@@ -1594,7 +1588,7 @@
         <v>24</v>
       </c>
       <c r="C18" s="21" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D18" s="18" t="s">
         <v>12</v>
@@ -1624,7 +1618,7 @@
         <v>38</v>
       </c>
       <c r="C19" s="20" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D19" s="18" t="s">
         <v>12</v>
@@ -1651,10 +1645,10 @@
         <v>openBankingBrazil/&lt;brand&gt;/companies/personalCreditCards/fees/otherServices/price/interval</v>
       </c>
       <c r="B20" s="24" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D20" s="16" t="s">
         <v>12</v>
@@ -1666,10 +1660,10 @@
         <v>13</v>
       </c>
       <c r="G20" s="18" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H20" s="29" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="I20" s="19">
         <v>4</v>
@@ -1678,7 +1672,7 @@
         <v>4</v>
       </c>
       <c r="K20" s="20" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -1687,22 +1681,22 @@
         <v>openBankingBrazil/&lt;brand&gt;/companies/personalCreditCards/fees/otherServices/price/value</v>
       </c>
       <c r="B21" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="D21" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21" s="17">
+        <v>12</v>
+      </c>
+      <c r="F21" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="G21" s="18" t="s">
         <v>43</v>
-      </c>
-      <c r="C21" s="20" t="s">
-        <v>94</v>
-      </c>
-      <c r="D21" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="E21" s="17">
-        <v>12</v>
-      </c>
-      <c r="F21" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="G21" s="18" t="s">
-        <v>44</v>
       </c>
       <c r="H21" s="18"/>
       <c r="I21" s="19">
@@ -1712,7 +1706,7 @@
         <v>4</v>
       </c>
       <c r="K21" s="20" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -1724,7 +1718,7 @@
         <v>25</v>
       </c>
       <c r="C22" s="20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D22" s="16" t="s">
         <v>12</v>
@@ -1736,11 +1730,11 @@
         <v>13</v>
       </c>
       <c r="G22" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="H22" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="H22" s="21" t="s">
-        <v>47</v>
-      </c>
       <c r="I22" s="19">
         <v>4</v>
       </c>
@@ -1748,7 +1742,7 @@
         <v>4</v>
       </c>
       <c r="K22" s="20" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="33" x14ac:dyDescent="0.25">
@@ -1757,10 +1751,10 @@
         <v>openBankingBrazil/&lt;brand&gt;/companies/personalCreditCards/fees/otherServices/price/frequency</v>
       </c>
       <c r="B23" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="C23" s="37" t="s">
         <v>96</v>
-      </c>
-      <c r="C23" s="37" t="s">
-        <v>98</v>
       </c>
       <c r="D23" s="18" t="s">
         <v>12</v>
@@ -1782,7 +1776,7 @@
         <v>4</v>
       </c>
       <c r="K23" s="20" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -1794,7 +1788,7 @@
         <v>32</v>
       </c>
       <c r="C24" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D24" s="16" t="s">
         <v>12</v>
@@ -1816,7 +1810,7 @@
         <v>18</v>
       </c>
       <c r="K24" s="20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
@@ -1828,7 +1822,7 @@
         <v>39</v>
       </c>
       <c r="C25" s="20" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D25" s="16" t="s">
         <v>12</v>
@@ -1850,7 +1844,7 @@
         <v>18</v>
       </c>
       <c r="K25" s="20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -1859,10 +1853,10 @@
         <v>openBankingBrazil/&lt;brand&gt;/companies/personalCreditCards/interestRates/feeRate/price/interval</v>
       </c>
       <c r="B26" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="C26" s="20" t="s">
         <v>100</v>
-      </c>
-      <c r="C26" s="20" t="s">
-        <v>102</v>
       </c>
       <c r="D26" s="16" t="s">
         <v>12</v>
@@ -1874,10 +1868,10 @@
         <v>13</v>
       </c>
       <c r="G26" s="16" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H26" s="29" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="I26" s="19">
         <v>4</v>
@@ -1886,7 +1880,7 @@
         <v>4</v>
       </c>
       <c r="K26" s="20" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -1895,10 +1889,10 @@
         <v>openBankingBrazil/&lt;brand&gt;/companies/personalCreditCards/interestRates/feeRate/price/rate</v>
       </c>
       <c r="B27" s="18" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C27" s="20" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D27" s="18" t="s">
         <v>12</v>
@@ -1920,7 +1914,7 @@
         <v>4</v>
       </c>
       <c r="K27" s="20" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="33" x14ac:dyDescent="0.25">
@@ -1929,10 +1923,10 @@
         <v>openBankingBrazil/&lt;brand&gt;/companies/personalCreditCards/interestRates/feeRate/price/frequency</v>
       </c>
       <c r="B28" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="C28" s="37" t="s">
         <v>96</v>
-      </c>
-      <c r="C28" s="37" t="s">
-        <v>98</v>
       </c>
       <c r="D28" s="18" t="s">
         <v>12</v>
@@ -1954,7 +1948,7 @@
         <v>4</v>
       </c>
       <c r="K28" s="20" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -1963,10 +1957,10 @@
         <v>openBankingBrazil/&lt;brand&gt;/companies/personalCreditCards/interestRates/instalmentRate/price/interval</v>
       </c>
       <c r="B29" s="24" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C29" s="20" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D29" s="16" t="s">
         <v>12</v>
@@ -1978,10 +1972,10 @@
         <v>13</v>
       </c>
       <c r="G29" s="16" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H29" s="29" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="I29" s="19">
         <v>4</v>
@@ -1990,7 +1984,7 @@
         <v>4</v>
       </c>
       <c r="K29" s="20" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -1999,10 +1993,10 @@
         <v>openBankingBrazil/&lt;brand&gt;/companies/personalCreditCards/interestRates/instalmentRate/price/rate</v>
       </c>
       <c r="B30" s="16" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C30" s="21" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D30" s="18" t="s">
         <v>12</v>
@@ -2024,7 +2018,7 @@
         <v>4</v>
       </c>
       <c r="K30" s="20" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="33" x14ac:dyDescent="0.25">
@@ -2033,10 +2027,10 @@
         <v>openBankingBrazil/&lt;brand&gt;/companies/personalCreditCards/interestRates/instalmentRate/price/frequency</v>
       </c>
       <c r="B31" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="C31" s="37" t="s">
         <v>96</v>
-      </c>
-      <c r="C31" s="37" t="s">
-        <v>98</v>
       </c>
       <c r="D31" s="18" t="s">
         <v>12</v>
@@ -2058,7 +2052,7 @@
         <v>4</v>
       </c>
       <c r="K31" s="20" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -2070,7 +2064,7 @@
         <v>24</v>
       </c>
       <c r="C32" s="29" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D32" s="22" t="s">
         <v>12</v>
@@ -2083,7 +2077,7 @@
       </c>
       <c r="G32" s="22"/>
       <c r="H32" s="32" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="I32" s="19">
         <v>1</v>
@@ -2102,7 +2096,7 @@
         <v>32</v>
       </c>
       <c r="C33" s="29" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D33" s="22" t="s">
         <v>12</v>
@@ -2124,7 +2118,7 @@
         <v>1</v>
       </c>
       <c r="K33" s="29" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
@@ -2136,7 +2130,7 @@
         <v>29</v>
       </c>
       <c r="C34" s="21" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D34" s="18" t="s">
         <v>12</v>
@@ -2366,7 +2360,7 @@
   <dimension ref="A1:L39"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="H20" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight"/>
@@ -2433,7 +2427,7 @@
         <v>11</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D2" s="16" t="s">
         <v>12</v>
@@ -2468,7 +2462,7 @@
         <v>11</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D3" s="18" t="s">
         <v>12</v>
@@ -2502,7 +2496,7 @@
         <v>16</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D4" s="18" t="s">
         <v>12</v>
@@ -2517,7 +2511,7 @@
         <v>17</v>
       </c>
       <c r="H4" s="20" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="I4" s="19">
         <v>1</v>
@@ -2538,7 +2532,7 @@
         <v>11</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D5" s="18" t="s">
         <v>12</v>
@@ -2570,7 +2564,7 @@
         <v>19</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D6" s="22" t="s">
         <v>12</v>
@@ -2583,7 +2577,7 @@
       </c>
       <c r="G6" s="18"/>
       <c r="H6" s="20" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I6" s="19">
         <v>1</v>
@@ -2599,10 +2593,10 @@
         <v>openBankingBrazil/&lt;brand&gt;/companies/businessCreditCards/identification/creditCardNetwork</v>
       </c>
       <c r="B7" s="22" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C7" s="24" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D7" s="22" t="s">
         <v>12</v>
@@ -2615,7 +2609,7 @@
       </c>
       <c r="G7" s="18"/>
       <c r="H7" s="20" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I7" s="19">
         <v>1</v>
@@ -2634,7 +2628,7 @@
         <v>32</v>
       </c>
       <c r="C8" s="24" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D8" s="22" t="s">
         <v>12</v>
@@ -2656,7 +2650,7 @@
         <v>1</v>
       </c>
       <c r="K8" s="20" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="45" x14ac:dyDescent="0.25">
@@ -2665,10 +2659,10 @@
         <v>openBankingBrazil/&lt;brand&gt;/companies/businessCreditCards/rewardsProgram/hasRewardProgram</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C9" s="20" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D9" s="18" t="s">
         <v>20</v>
@@ -2683,7 +2677,7 @@
         <v>21</v>
       </c>
       <c r="H9" s="20" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="I9" s="19">
         <v>1</v>
@@ -2699,7 +2693,7 @@
         <v>openBankingBrazil/&lt;brand&gt;/companies/businessCreditCards/rewardsProgram/rewardProgramInfo</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C10" s="20" t="s">
         <v>22</v>
@@ -2724,7 +2718,7 @@
         <v>1</v>
       </c>
       <c r="K10" s="20" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="60" x14ac:dyDescent="0.25">
@@ -2736,7 +2730,7 @@
         <v>11</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D11" s="18" t="s">
         <v>12</v>
@@ -2766,7 +2760,7 @@
         <v>24</v>
       </c>
       <c r="C12" s="21" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D12" s="18" t="s">
         <v>12</v>
@@ -2796,7 +2790,7 @@
         <v>38</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D13" s="18" t="s">
         <v>12</v>
@@ -2823,10 +2817,10 @@
         <v>openBankingBrazil/&lt;brand&gt;/companies/businessCreditCards/fees/services/price/interval</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D14" s="16" t="s">
         <v>12</v>
@@ -2838,10 +2832,10 @@
         <v>13</v>
       </c>
       <c r="G14" s="18" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H14" s="29" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="I14" s="19">
         <v>4</v>
@@ -2850,7 +2844,7 @@
         <v>4</v>
       </c>
       <c r="K14" s="20" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="60" x14ac:dyDescent="0.25">
@@ -2859,22 +2853,22 @@
         <v>openBankingBrazil/&lt;brand&gt;/companies/businessCreditCards/fees/services/price/value</v>
       </c>
       <c r="B15" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="D15" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="17">
+        <v>12</v>
+      </c>
+      <c r="F15" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" s="18" t="s">
         <v>43</v>
-      </c>
-      <c r="C15" s="21" t="s">
-        <v>101</v>
-      </c>
-      <c r="D15" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="E15" s="17">
-        <v>12</v>
-      </c>
-      <c r="F15" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="G15" s="18" t="s">
-        <v>44</v>
       </c>
       <c r="H15" s="18"/>
       <c r="I15" s="19">
@@ -2884,7 +2878,7 @@
         <v>4</v>
       </c>
       <c r="K15" s="20" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="45" x14ac:dyDescent="0.25">
@@ -2896,7 +2890,7 @@
         <v>25</v>
       </c>
       <c r="C16" s="20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D16" s="16" t="s">
         <v>12</v>
@@ -2908,11 +2902,11 @@
         <v>13</v>
       </c>
       <c r="G16" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="H16" s="21" t="s">
-        <v>47</v>
-      </c>
       <c r="I16" s="19">
         <v>4</v>
       </c>
@@ -2920,7 +2914,7 @@
         <v>4</v>
       </c>
       <c r="K16" s="20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="33" x14ac:dyDescent="0.25">
@@ -2929,10 +2923,10 @@
         <v>openBankingBrazil/&lt;brand&gt;/companies/businessCreditCards/fees/services/price/frequency</v>
       </c>
       <c r="B17" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="C17" s="37" t="s">
         <v>96</v>
-      </c>
-      <c r="C17" s="37" t="s">
-        <v>98</v>
       </c>
       <c r="D17" s="18" t="s">
         <v>12</v>
@@ -2954,7 +2948,7 @@
         <v>4</v>
       </c>
       <c r="K17" s="20" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -2966,7 +2960,7 @@
         <v>32</v>
       </c>
       <c r="C18" s="24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D18" s="25" t="s">
         <v>12</v>
@@ -2988,7 +2982,7 @@
         <v>18</v>
       </c>
       <c r="K18" s="20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -3000,7 +2994,7 @@
         <v>39</v>
       </c>
       <c r="C19" s="24" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D19" s="25" t="s">
         <v>12</v>
@@ -3022,7 +3016,7 @@
         <v>18</v>
       </c>
       <c r="K19" s="20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -3031,10 +3025,10 @@
         <v>openBankingBrazil/&lt;brand&gt;/companies/businessCreditCards/interestRates/feeRate/price/interval</v>
       </c>
       <c r="B20" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="C20" s="20" t="s">
         <v>100</v>
-      </c>
-      <c r="C20" s="20" t="s">
-        <v>102</v>
       </c>
       <c r="D20" s="16" t="s">
         <v>12</v>
@@ -3046,10 +3040,10 @@
         <v>13</v>
       </c>
       <c r="G20" s="16" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H20" s="29" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="I20" s="19">
         <v>4</v>
@@ -3058,7 +3052,7 @@
         <v>4</v>
       </c>
       <c r="K20" s="20" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -3067,10 +3061,10 @@
         <v>openBankingBrazil/&lt;brand&gt;/companies/businessCreditCards/interestRates/feeRate/price/rate</v>
       </c>
       <c r="B21" s="22" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C21" s="20" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D21" s="18" t="s">
         <v>12</v>
@@ -3092,7 +3086,7 @@
         <v>4</v>
       </c>
       <c r="K21" s="20" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="33" x14ac:dyDescent="0.25">
@@ -3101,10 +3095,10 @@
         <v>openBankingBrazil/&lt;brand&gt;/companies/businessCreditCards/interestRates/feeRate/price/frequency</v>
       </c>
       <c r="B22" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="C22" s="37" t="s">
         <v>96</v>
-      </c>
-      <c r="C22" s="37" t="s">
-        <v>98</v>
       </c>
       <c r="D22" s="18" t="s">
         <v>12</v>
@@ -3126,7 +3120,7 @@
         <v>4</v>
       </c>
       <c r="K22" s="20" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -3135,10 +3129,10 @@
         <v>openBankingBrazil/&lt;brand&gt;/companies/businessCreditCards/interestRates/instalmentRate/price/interval</v>
       </c>
       <c r="B23" s="24" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C23" s="20" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D23" s="16" t="s">
         <v>12</v>
@@ -3150,10 +3144,10 @@
         <v>13</v>
       </c>
       <c r="G23" s="16" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H23" s="29" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="I23" s="19">
         <v>4</v>
@@ -3162,7 +3156,7 @@
         <v>4</v>
       </c>
       <c r="K23" s="20" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -3171,10 +3165,10 @@
         <v>openBankingBrazil/&lt;brand&gt;/companies/businessCreditCards/interestRates/instalmentRate/price/rate</v>
       </c>
       <c r="B24" s="25" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C24" s="21" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D24" s="18" t="s">
         <v>12</v>
@@ -3196,7 +3190,7 @@
         <v>4</v>
       </c>
       <c r="K24" s="20" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="33" x14ac:dyDescent="0.25">
@@ -3205,10 +3199,10 @@
         <v>openBankingBrazil/&lt;brand&gt;/companies/businessCreditCards/interestRates/instalmentRate/price/frequency</v>
       </c>
       <c r="B25" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="C25" s="37" t="s">
         <v>96</v>
-      </c>
-      <c r="C25" s="37" t="s">
-        <v>98</v>
       </c>
       <c r="D25" s="18" t="s">
         <v>12</v>
@@ -3230,7 +3224,7 @@
         <v>4</v>
       </c>
       <c r="K25" s="20" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -3242,7 +3236,7 @@
         <v>24</v>
       </c>
       <c r="C26" s="32" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D26" s="22" t="s">
         <v>12</v>
@@ -3255,7 +3249,7 @@
       </c>
       <c r="G26" s="18"/>
       <c r="H26" s="29" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I26" s="19">
         <v>1</v>
@@ -3274,7 +3268,7 @@
         <v>32</v>
       </c>
       <c r="C27" s="32" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D27" s="22" t="s">
         <v>12</v>
@@ -3296,7 +3290,7 @@
         <v>1</v>
       </c>
       <c r="K27" s="29" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
@@ -3340,7 +3334,7 @@
         <v>32</v>
       </c>
       <c r="C29" s="21" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D29" s="18" t="s">
         <v>12</v>
@@ -3370,7 +3364,7 @@
         <v>34</v>
       </c>
       <c r="C30" s="20" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D30" s="18" t="s">
         <v>12</v>
